--- a/pred_ohlcv/54_21/2019-10-16 BAT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-16 BAT ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>135680.9618130029</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>135285.4095130029</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>130409.4375130029</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -574,7 +574,7 @@
         <v>150966.7898130029</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -678,7 +678,7 @@
         <v>151045.6029130029</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>151045.6029130029</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -756,7 +756,7 @@
         <v>151055.6029130029</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>150399.7380130029</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>150076.0159130029</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>150076.0159130029</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>150076.0159130029</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>147763.8053130028</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>147763.8053130028</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>150663.8053130028</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>150663.8053130028</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>150716.8629130028</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>249649.7974702859</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>286600.6629774019</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>277451.8419774019</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>269951.7780774019</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>269952.7780774019</v>
       </c>
       <c r="H67">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>269235.5019774019</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>270179.1348774019</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>270179.1348774019</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>270179.1348774019</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>270179.1348774019</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>255303.6805774019</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>255303.6805774019</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>256322.3464774019</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>248930.4311774019</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>248890.4311774019</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>369914.845133956</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>370899.607733956</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>370708.214633956</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>371418.458333956</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>371418.458333956</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>373954.210733956</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>373954.210733956</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>373954.210733956</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>373830.273233956</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>373942.130333956</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>365521.679233956</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>365521.679233956</v>
       </c>
       <c r="H195">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>362985.237033956</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>362985.237033956</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>322489.099533956</v>
       </c>
       <c r="H198">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>322489.099533956</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>321800.985233956</v>
       </c>
       <c r="H200">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>321810.918233956</v>
       </c>
       <c r="H201">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>320567.057833956</v>
       </c>
       <c r="H202">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>438721.7664249609</v>
       </c>
       <c r="H237">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>443869.3912249609</v>
       </c>
       <c r="H238">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>443869.3912249609</v>
       </c>
       <c r="H239">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>443869.3912249609</v>
       </c>
       <c r="H240">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>431615.2486249609</v>
       </c>
       <c r="H241">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>434257.2163249609</v>
       </c>
       <c r="H242">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>434257.2163249609</v>
       </c>
       <c r="H243">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>434072.6167249609</v>
       </c>
       <c r="H244">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>435651.7786249609</v>
       </c>
       <c r="H245">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>435814.1147249609</v>
       </c>
       <c r="H246">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>435814.1147249609</v>
       </c>
       <c r="H247">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>428391.7672249609</v>
       </c>
       <c r="H248">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>446637.7215249609</v>
       </c>
       <c r="H249">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>409874.7891249609</v>
       </c>
       <c r="H250">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>433672.9346249609</v>
       </c>
       <c r="H251">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>432982.9622249609</v>
       </c>
       <c r="H252">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>439158.9160249609</v>
       </c>
       <c r="H253">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>439140.4565249609</v>
       </c>
       <c r="H254">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>438744.0932249608</v>
       </c>
       <c r="H255">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>432937.4242249609</v>
       </c>
       <c r="H256">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>432937.4242249609</v>
       </c>
       <c r="H257">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>432925.2660249608</v>
       </c>
       <c r="H258">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>440531.6122249608</v>
       </c>
       <c r="H259">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>440531.6122249608</v>
       </c>
       <c r="H260">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>444116.9320249608</v>
       </c>
       <c r="H261">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>444116.9320249608</v>
       </c>
       <c r="H262">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>440386.4938249608</v>
       </c>
       <c r="H263">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>447231.1026249608</v>
       </c>
       <c r="H264">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>447231.1026249608</v>
       </c>
       <c r="H265">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>447231.1026249608</v>
       </c>
       <c r="H266">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>445591.4584249608</v>
       </c>
       <c r="H273">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>438853.3204249609</v>
       </c>
       <c r="H274">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>419018.0518714882</v>
       </c>
       <c r="H400">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>430379.7934714882</v>
       </c>
       <c r="H401">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>430379.7934714882</v>
       </c>
       <c r="H402">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>430236.8196714883</v>
       </c>
       <c r="H403">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>430236.8196714883</v>
       </c>
       <c r="H404">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>430236.8196714883</v>
       </c>
       <c r="H405">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -10948,7 +10948,7 @@
         <v>430236.8196714883</v>
       </c>
       <c r="H406">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -10974,7 +10974,7 @@
         <v>430236.8196714883</v>
       </c>
       <c r="H407">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>427391.3494714883</v>
       </c>
       <c r="H408">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>427391.3494714883</v>
       </c>
       <c r="H409">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>408660.1252714883</v>
       </c>
       <c r="H410">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>408660.1252714883</v>
       </c>
       <c r="H411">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="412" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-16 BAT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-16 BAT ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>135680.9618130029</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>135285.4095130029</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>130409.4375130029</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -574,7 +574,7 @@
         <v>150966.7898130029</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -808,7 +808,7 @@
         <v>150076.0159130029</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>150076.0159130029</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>150076.0159130029</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -938,7 +938,7 @@
         <v>145991.9663130029</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>144724.5034130029</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>147143.9514130029</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>147763.8053130028</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>147763.8053130028</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>147763.8053130028</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>147763.8053130028</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>150663.8053130028</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>150663.8053130028</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>150716.8629130028</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>249649.7974702859</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>286600.6629774019</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>277451.8419774019</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>269951.7780774019</v>
       </c>
       <c r="H63">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>269952.7780774019</v>
       </c>
       <c r="H67">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>269235.5019774019</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>270179.1348774019</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>270179.1348774019</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>270179.1348774019</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>270179.1348774019</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>255303.6805774019</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>255303.6805774019</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>256322.3464774019</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>248930.4311774019</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>248890.4311774019</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>369914.845133956</v>
       </c>
       <c r="H184">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>370899.607733956</v>
       </c>
       <c r="H185">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>370708.214633956</v>
       </c>
       <c r="H186">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>371418.458333956</v>
       </c>
       <c r="H187">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>371418.458333956</v>
       </c>
       <c r="H188">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>373954.210733956</v>
       </c>
       <c r="H189">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>373954.210733956</v>
       </c>
       <c r="H190">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>373954.210733956</v>
       </c>
       <c r="H191">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>373830.273233956</v>
       </c>
       <c r="H192">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>373942.130333956</v>
       </c>
       <c r="H193">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>365521.679233956</v>
       </c>
       <c r="H194">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>365521.679233956</v>
       </c>
       <c r="H195">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>362985.237033956</v>
       </c>
       <c r="H196">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>362985.237033956</v>
       </c>
       <c r="H197">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>322489.099533956</v>
       </c>
       <c r="H198">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>322489.099533956</v>
       </c>
       <c r="H199">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>321800.985233956</v>
       </c>
       <c r="H200">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>321810.918233956</v>
       </c>
       <c r="H201">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>320567.057833956</v>
       </c>
       <c r="H202">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>438721.7664249609</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>443869.3912249609</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>443869.3912249609</v>
       </c>
       <c r="H239">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>443869.3912249609</v>
       </c>
       <c r="H240">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>431615.2486249609</v>
       </c>
       <c r="H241">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>434257.2163249609</v>
       </c>
       <c r="H242">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>434257.2163249609</v>
       </c>
       <c r="H243">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>434072.6167249609</v>
       </c>
       <c r="H244">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>435651.7786249609</v>
       </c>
       <c r="H245">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>435814.1147249609</v>
       </c>
       <c r="H246">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>435814.1147249609</v>
       </c>
       <c r="H247">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>428391.7672249609</v>
       </c>
       <c r="H248">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>446637.7215249609</v>
       </c>
       <c r="H249">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>409874.7891249609</v>
       </c>
       <c r="H250">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>433672.9346249609</v>
       </c>
       <c r="H251">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>432982.9622249609</v>
       </c>
       <c r="H252">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>439158.9160249609</v>
       </c>
       <c r="H253">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>439140.4565249609</v>
       </c>
       <c r="H254">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>438744.0932249608</v>
       </c>
       <c r="H255">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>432937.4242249609</v>
       </c>
       <c r="H256">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>432937.4242249609</v>
       </c>
       <c r="H257">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>432925.2660249608</v>
       </c>
       <c r="H258">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>440531.6122249608</v>
       </c>
       <c r="H259">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>419018.0518714882</v>
       </c>
       <c r="H400">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>430379.7934714882</v>
       </c>
       <c r="H401">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>430379.7934714882</v>
       </c>
       <c r="H402">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>430236.8196714883</v>
       </c>
       <c r="H403">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>430236.8196714883</v>
       </c>
       <c r="H404">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>430236.8196714883</v>
       </c>
       <c r="H405">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -10948,7 +10948,7 @@
         <v>430236.8196714883</v>
       </c>
       <c r="H406">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -10974,7 +10974,7 @@
         <v>430236.8196714883</v>
       </c>
       <c r="H407">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>427391.3494714883</v>
       </c>
       <c r="H408">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>427391.3494714883</v>
       </c>
       <c r="H409">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>408660.1252714883</v>
       </c>
       <c r="H410">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>408660.1252714883</v>
       </c>
       <c r="H411">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="412" spans="1:8">
